--- a/test/testdata/testSwissborg_account_statement_20201218_20210408.xlsx
+++ b/test/testdata/testSwissborg_account_statement_20201218_20210408.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A42362F-E237-1246-A8CB-6A404EB9F8A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Python\SByield\test\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18437" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -1105,12 +1109,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="167" formatCode="#0.##"/>
-    <numFmt numFmtId="168" formatCode="#0.#######"/>
-    <numFmt numFmtId="169" formatCode="#0.###"/>
-    <numFmt numFmtId="170" formatCode="#0.########"/>
+    <numFmt numFmtId="164" formatCode="#0.##"/>
+    <numFmt numFmtId="165" formatCode="#0.#######"/>
+    <numFmt numFmtId="166" formatCode="#0.###"/>
+    <numFmt numFmtId="167" formatCode="#0.########"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1237,16 +1241,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,22 +1569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.828125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="29.0546875" customWidth="1"/>
-    <col min="3" max="10" width="14.9296875" customWidth="1"/>
-    <col min="11" max="11" width="69.94921875" customWidth="1"/>
+    <col min="1" max="2" width="29.07421875" customWidth="1"/>
+    <col min="3" max="10" width="14.921875" customWidth="1"/>
+    <col min="11" max="11" width="69.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1641,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>72</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>113</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>115</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>117</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>121</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>123</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>125</v>
       </c>
@@ -3315,7 +3321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>129</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>131</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>133</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>135</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>137</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>139</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>141</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>143</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>145</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>147</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>149</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>151</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>153</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>155</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
         <v>157</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
         <v>159</v>
       </c>
@@ -3910,7 +3916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
         <v>161</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>163</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
         <v>165</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
         <v>167</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
         <v>171</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>173</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>175</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>175</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
         <v>177</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>177</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>179</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>179</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>181</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>181</v>
       </c>
@@ -4435,7 +4441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>183</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>183</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>185</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>188</v>
       </c>
@@ -4575,7 +4581,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>188</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>192</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>192</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
         <v>194</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
         <v>194</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
         <v>196</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
         <v>198</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>198</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="4" t="s">
         <v>200</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>200</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
         <v>202</v>
       </c>
@@ -4995,7 +5001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
         <v>204</v>
       </c>
@@ -5030,7 +5036,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="4" t="s">
         <v>204</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
         <v>207</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
         <v>207</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
         <v>209</v>
       </c>
@@ -5170,7 +5176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="4" t="s">
         <v>209</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="4" t="s">
         <v>211</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="4" t="s">
         <v>211</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
         <v>215</v>
       </c>
@@ -5310,7 +5316,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="4" t="s">
         <v>215</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="4" t="s">
         <v>219</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="4" t="s">
         <v>219</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>221</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
         <v>221</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
         <v>223</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>223</v>
       </c>
@@ -5555,7 +5561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>225</v>
       </c>
@@ -5590,7 +5596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
         <v>225</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
         <v>227</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="4" t="s">
         <v>227</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>229</v>
       </c>
@@ -5730,7 +5736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
         <v>229</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="4" t="s">
         <v>231</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
         <v>231</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
         <v>233</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
         <v>235</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="4" t="s">
         <v>235</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="4" t="s">
         <v>239</v>
       </c>
@@ -5975,7 +5981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
         <v>241</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="4" t="s">
         <v>241</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
         <v>243</v>
       </c>
@@ -6080,7 +6086,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="4" t="s">
         <v>243</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="4" t="s">
         <v>247</v>
       </c>
@@ -6150,7 +6156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="4" t="s">
         <v>247</v>
       </c>
@@ -6185,7 +6191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="4" t="s">
         <v>249</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="4" t="s">
         <v>249</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
         <v>251</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="4" t="s">
         <v>251</v>
       </c>
@@ -6325,7 +6331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="4" t="s">
         <v>253</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="4" t="s">
         <v>253</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="4" t="s">
         <v>255</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="4" t="s">
         <v>255</v>
       </c>
@@ -6465,7 +6471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
         <v>257</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="4" t="s">
         <v>257</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="4" t="s">
         <v>259</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="4" t="s">
         <v>259</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
         <v>261</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="4" t="s">
         <v>261</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="4" t="s">
         <v>263</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="4" t="s">
         <v>263</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="4" t="s">
         <v>265</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="4" t="s">
         <v>265</v>
       </c>
@@ -6815,7 +6821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="4" t="s">
         <v>267</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="4" t="s">
         <v>267</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="4" t="s">
         <v>269</v>
       </c>
@@ -6920,7 +6926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="4" t="s">
         <v>269</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
         <v>271</v>
       </c>
@@ -6990,7 +6996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="4" t="s">
         <v>271</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
         <v>273</v>
       </c>
@@ -7060,7 +7066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="4" t="s">
         <v>273</v>
       </c>
@@ -7095,7 +7101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="4" t="s">
         <v>275</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="4" t="s">
         <v>275</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
         <v>277</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="4" t="s">
         <v>277</v>
       </c>
@@ -7235,7 +7241,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="4" t="s">
         <v>281</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="4" t="s">
         <v>281</v>
       </c>
@@ -7305,7 +7311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="4" t="s">
         <v>283</v>
       </c>
@@ -7340,7 +7346,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="4" t="s">
         <v>283</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="4" t="s">
         <v>287</v>
       </c>
@@ -7410,7 +7416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="4" t="s">
         <v>287</v>
       </c>
@@ -7445,7 +7451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="4" t="s">
         <v>289</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="4" t="s">
         <v>289</v>
       </c>
@@ -7515,7 +7521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="4" t="s">
         <v>291</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" s="4" t="s">
         <v>291</v>
       </c>
@@ -7585,7 +7591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="4" t="s">
         <v>293</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" s="4" t="s">
         <v>295</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" s="4" t="s">
         <v>295</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" s="4" t="s">
         <v>298</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" s="4" t="s">
         <v>298</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" s="4" t="s">
         <v>300</v>
       </c>
@@ -7795,7 +7801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" s="4" t="s">
         <v>300</v>
       </c>
@@ -7830,7 +7836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" s="4" t="s">
         <v>302</v>
       </c>
@@ -7865,7 +7871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" s="4" t="s">
         <v>302</v>
       </c>
@@ -7900,7 +7906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" s="4" t="s">
         <v>304</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" s="4" t="s">
         <v>304</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" s="4" t="s">
         <v>306</v>
       </c>
@@ -8005,7 +8011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
         <v>306</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" s="4" t="s">
         <v>308</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="4" t="s">
         <v>308</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="4" t="s">
         <v>310</v>
       </c>
@@ -8145,7 +8151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="4" t="s">
         <v>310</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="4" t="s">
         <v>312</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="4" t="s">
         <v>312</v>
       </c>
@@ -8250,7 +8256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="4" t="s">
         <v>314</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="4" t="s">
         <v>314</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="4" t="s">
         <v>316</v>
       </c>
@@ -8355,7 +8361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="4" t="s">
         <v>316</v>
       </c>
@@ -8390,7 +8396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="4" t="s">
         <v>318</v>
       </c>
@@ -8425,7 +8431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" s="4" t="s">
         <v>318</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" s="4" t="s">
         <v>318</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" s="4" t="s">
         <v>320</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" s="4" t="s">
         <v>320</v>
       </c>
@@ -8565,7 +8571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" s="4" t="s">
         <v>320</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" s="4" t="s">
         <v>322</v>
       </c>
@@ -8635,7 +8641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" s="4" t="s">
         <v>322</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" s="4" t="s">
         <v>322</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" s="4" t="s">
         <v>324</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" s="4" t="s">
         <v>324</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" s="4" t="s">
         <v>324</v>
       </c>
@@ -8810,7 +8816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" s="4" t="s">
         <v>326</v>
       </c>
@@ -8845,7 +8851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" s="4" t="s">
         <v>326</v>
       </c>
@@ -8880,7 +8886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" s="4" t="s">
         <v>326</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" s="4" t="s">
         <v>328</v>
       </c>
@@ -8950,7 +8956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" s="4" t="s">
         <v>328</v>
       </c>
@@ -8985,7 +8991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" s="4" t="s">
         <v>328</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" s="4" t="s">
         <v>330</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" s="4" t="s">
         <v>330</v>
       </c>
@@ -9090,7 +9096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" s="4" t="s">
         <v>330</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" s="4" t="s">
         <v>332</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" s="4" t="s">
         <v>332</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" s="4" t="s">
         <v>332</v>
       </c>
@@ -9230,7 +9236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" s="4" t="s">
         <v>334</v>
       </c>
@@ -9265,7 +9271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" s="4" t="s">
         <v>334</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" s="4" t="s">
         <v>334</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" s="4" t="s">
         <v>336</v>
       </c>
@@ -9370,7 +9376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" s="4" t="s">
         <v>336</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" s="4" t="s">
         <v>336</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" s="4" t="s">
         <v>338</v>
       </c>
@@ -9475,7 +9481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" s="4" t="s">
         <v>338</v>
       </c>
@@ -9510,7 +9516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" s="4" t="s">
         <v>338</v>
       </c>
@@ -9545,7 +9551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" s="4" t="s">
         <v>340</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" s="4" t="s">
         <v>340</v>
       </c>
@@ -9615,7 +9621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" s="4" t="s">
         <v>340</v>
       </c>
@@ -9650,7 +9656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" s="4" t="s">
         <v>342</v>
       </c>
@@ -9685,7 +9691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" s="4" t="s">
         <v>342</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" s="4" t="s">
         <v>342</v>
       </c>
@@ -9755,7 +9761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" s="4" t="s">
         <v>344</v>
       </c>
@@ -9790,7 +9796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" s="4" t="s">
         <v>344</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" s="4" t="s">
         <v>344</v>
       </c>
@@ -9860,7 +9866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" s="4" t="s">
         <v>346</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" s="4" t="s">
         <v>346</v>
       </c>
@@ -9930,7 +9936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" s="4" t="s">
         <v>346</v>
       </c>
@@ -9965,7 +9971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" s="4" t="s">
         <v>348</v>
       </c>
@@ -10000,7 +10006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" s="4" t="s">
         <v>348</v>
       </c>
@@ -10035,7 +10041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" s="4" t="s">
         <v>348</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" s="4" t="s">
         <v>350</v>
       </c>
@@ -10105,7 +10111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" s="4" t="s">
         <v>350</v>
       </c>
@@ -10140,7 +10146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" s="4" t="s">
         <v>350</v>
       </c>
@@ -10175,7 +10181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" s="4" t="s">
         <v>352</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" s="4" t="s">
         <v>352</v>
       </c>
@@ -10245,7 +10251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" s="4" t="s">
         <v>352</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256" s="4" t="s">
         <v>354</v>
       </c>
@@ -10315,7 +10321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257" s="4" t="s">
         <v>354</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258" s="4" t="s">
         <v>354</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259" s="4" t="s">
         <v>356</v>
       </c>
@@ -10420,7 +10426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260" s="4" t="s">
         <v>356</v>
       </c>
@@ -10455,7 +10461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261" s="4" t="s">
         <v>356</v>
       </c>
